--- a/data/trans_bre/P25A_11_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_11_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>139,79%</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>-8,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>136,21%</t>
+          <t>148,33%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>81,67%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>178,23%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 8,75</t>
+          <t>-10,63; 8,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 6,47</t>
+          <t>-4,23; 14,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 10,66</t>
+          <t>-5,75; 14,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-61,36; 1261,88</t>
+          <t>-3,13; 21,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-63,36; 261,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,22; 978,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-77,83; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-66,04; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>249,9%</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>173,74%</t>
+          <t>149,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>194,33%</t>
+          <t>149,12%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>269,05%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>359,73%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 8,24</t>
+          <t>-0,2; 7,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,48</t>
+          <t>-0,04; 8,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 9,78</t>
+          <t>1,52; 9,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,65; 1175,43</t>
+          <t>2,57; 12,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 768,31</t>
+          <t>-27,46; 1001,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,93; 676,77</t>
+          <t>-22,57; 924,34</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18,11; 1484,46</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14,75; 2596,33</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-15,1%</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>423,55%</t>
+          <t>-34,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,89%</t>
+          <t>76,63%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-20,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>33,37%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,37</t>
+          <t>-6,2; 2,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 8,02</t>
+          <t>-3,13; 4,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 4,16</t>
+          <t>-6,24; 2,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-76,14; 242,45</t>
+          <t>-3,51; 5,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,81; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-55,16; 311,16</t>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-85,21; 177,69</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-71,07; 342,73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>108,79%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>145,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>129,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 6,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,28; 326,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,41; 377,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,73; 317,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,93</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,35</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>34,69%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>123,26%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>90,21%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>178,04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 3,73</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 5,8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 5,65</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 9,27</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-41,24; 194,07</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 461,86</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,44; 282,31</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>34,73; 513,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25A_11_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_11_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,47</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,12</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,08</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-8,35%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>148,33%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>81,67%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>178,23%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.4090839257294185</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.384215601501525</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.240236514284271</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>8.253872656006939</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.07646105529766514</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.480706196272895</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.6139435967076307</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.852825316622511</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,63; 8,19</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; 14,71</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,75; 14,91</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,13; 21,16</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-77,83; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-66,04; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.06225493285202</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.078573324604731</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.867112731679853</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.990518362772581</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.8053803767008914</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6714780880154704</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.418192339259082</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>14.73620846171527</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12.84805004732848</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>21.18873253590204</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>11.27768247053097</v>
+      </c>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,67</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,61</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,53</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,3</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>149,81%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>149,12%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>269,05%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>359,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,2; 7,78</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,04; 8,02</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 9,73</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,57; 12,36</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-27,46; 1001,97</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-22,57; 924,34</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>18,11; 1484,46</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>14,75; 2596,33</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.86395282571325</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.153469165302377</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.470421124976944</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>7.783748814613359</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.735283460653736</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.82373435486674</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>2.828161302278821</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>4.227095063209049</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,14</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-34,52%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>76,63%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-20,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>33,37%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.003879396498874427</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.5237385506752964</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.543868110969485</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>3.353654697914309</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2060019208176135</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1111116720446385</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.2041567323141538</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.3099745056178505</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,2; 2,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,13; 4,25</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,24; 2,77</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 5,37</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-85,21; 177,69</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-71,07; 342,73</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.921588271033364</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.999763749646608</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.616307481317982</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13.05071107681476</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>11.16492189731636</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>11.30933649674039</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>16.0890120070093</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>28.49973007584729</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +817,205 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.814933213574869</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.6438353057176092</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.227343744887978</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.8171533964445248</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.5740649917424995</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.2421537152484973</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.2797725716124689</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2109326066267454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.6354193077902</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.478123537425024</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.001688560049198</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.613659613579417</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8921903457339914</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7837306111640955</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.367128764484018</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.959649685802086</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.374099155304163</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.670963255237568</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.537408737606121</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.835575816345314</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,93</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,35</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>34,69%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>123,26%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>90,21%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>178,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 3,73</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 5,8</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 5,65</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 9,27</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-41,24; 194,07</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 461,86</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-8,44; 282,31</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>34,73; 513,32</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.6154106438581095</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.948194294223876</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.682520311221812</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.511107358868557</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1666608330864528</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.135640041217033</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.8256489756101503</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.872766399693199</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.330319935351458</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2054684668735285</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2346723952953529</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>2.421372814614271</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.6158723315983389</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1210585767253151</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1110213159741961</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.444343534417841</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.365599422790231</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.143640223721005</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.487438761845127</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.290128030871724</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.566874944655485</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>4.271633233051453</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.668924511068413</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>5.428071818736146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
